--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3247.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3247.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.649203594964934</v>
+        <v>0.7459603548049927</v>
       </c>
       <c r="B1">
-        <v>2.146966170365543</v>
+        <v>0.5199152231216431</v>
       </c>
       <c r="C1">
-        <v>2.357326204289497</v>
+        <v>0.4039941728115082</v>
       </c>
       <c r="D1">
-        <v>2.737576412062953</v>
+        <v>0.3921604752540588</v>
       </c>
       <c r="E1">
-        <v>3.516309579548879</v>
+        <v>0.4242382347583771</v>
       </c>
     </row>
   </sheetData>
